--- a/ICNALE_correlation_sample.xlsx
+++ b/ICNALE_correlation_sample.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkyle2/Desktop/Programming/GitHub/kristopherkyle/LD_Workshop_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E3B70881-87CC-334C-83C3-2EC86ECF9DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44420A49-6E70-C34B-9D67-4A1512A3F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="21040" activeTab="1" xr2:uid="{42C730B2-3142-904F-96FF-5C7132A4CC8E}"/>
+    <workbookView xWindow="320" yWindow="940" windowWidth="33880" windowHeight="21040" activeTab="1" xr2:uid="{42C730B2-3142-904F-96FF-5C7132A4CC8E}"/>
   </bookViews>
   <sheets>
     <sheet name="icnale_rubric_taaled_taales_202" sheetId="1" r:id="rId1"/>
     <sheet name="MATTR50" sheetId="2" r:id="rId2"/>
     <sheet name="MTLD .72" sheetId="3" r:id="rId3"/>
+    <sheet name="Your Choice" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">MATTR50!$E$2:$E$639</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">MATTR50!$F$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">MATTR50!$F$2:$F$639</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">MATTR50!$F$2:$F$639</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">MATTR50!$G$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">MATTR50!$G$2:$G$639</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">MATTR50!$E$2:$E$639</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">MATTR50!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">MATTR50!$F$2:$F$639</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">MATTR50!$E$2:$E$639</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">MATTR50!$F$1</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9599" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9598" uniqueCount="987">
   <si>
     <t>filename</t>
   </si>
@@ -7866,4324 +7867,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MTLD .72'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mtld_original_aw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10940976842839295"/>
-                  <c:y val="-0.44025464321292596"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MTLD .72'!$F$2:$F$639</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="638"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MTLD .72'!$G$2:$G$639</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="638"/>
-                <c:pt idx="0">
-                  <c:v>72.526054220000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59.370896129999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70.872980249999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.737295000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54.39521122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.085147469999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>68.686591190000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76.333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.748569700000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46.5642487</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.237306840000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.334784579999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64.34190031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54.16078838</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>68.979865770000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>77.59565594</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71.616175429999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87.696715800000007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63.058139529999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>69.120760959999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>53.312195860000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>98.251987170000007</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>62.62036208</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63.345913850000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>73.388367729999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>65.762632159999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65.25</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78.015597</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.076402169999994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>52.30100771</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45.457377049999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>54.948612160000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>60.499505030000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44.145930360000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.214298979999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>57.25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>71.677153880000006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>49.10025168</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>54.682194250000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>73.14786771</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>64.684391219999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>79.91731867</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>48.64885958</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.85714286</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>51.054948590000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47.086723159999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51.914521110000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>70.018309579999993</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>57.40976732</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>56.210107870000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54.576781199999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>51.961409250000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57.033940919999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>39.614191130000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44.949419169999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.25</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>99.088834559999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>55.983882559999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>51.464809260000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>76.606038459999994</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>76.350710469999996</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>63.585248159999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>80.660120739999996</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>71.361052400000005</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>71.513871370000004</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>48.375</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>60.822325929999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>87.626447979999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>58.970783490000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>90.163487090000004</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>55.748858570000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>45.200787400000003</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>89.913762689999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>55.275564680000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>89.920025670000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>67.855027280000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>76.176974049999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>71.310687659999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>53.081329080000003</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>68.973912209999995</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>63.130178890000003</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>52.761382589999997</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>71.497883669999993</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>51.417420810000003</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>53.622663549999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>57.723507050000002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>59.967054259999998</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>99.766757600000005</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>62.630865200000002</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>53.55100521</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>85.382270660000003</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>35.846112570000003</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>43.467156860000003</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48.508474579999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50.362499999999997</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>51.439691439999997</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>65.464574170000006</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>47.484927229999997</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>64.666666669999998</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>42.492239699999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>48.56557969</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>78.304859829999998</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>86.677152320000005</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>58.077592959999997</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>40.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109.1759771</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>98.271653540000003</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>58.005663429999998</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>47.59615385</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>75.487012989999997</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>49.702041600000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>91.981536070000004</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>60.436097760000003</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>55.175872089999999</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>67.091180420000001</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>70.602319289999997</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>54.206249999999997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>61.253859349999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>63.14274168</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>61.760204080000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>71.537286460000004</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>42.911352659999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>42.75</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>75.352546779999997</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>65.089010279999997</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>55.223484849999998</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>59.258541479999998</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>76.877883179999998</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>62.469879519999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>54.788782310000002</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>67.340306889999994</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>63.287743550000002</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>65.663103719999995</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>85.595148080000001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>64.528582029999995</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>38.880506089999997</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>40.438591750000001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>35.224157300000002</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>48.768768770000001</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>65.759861790000002</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>54.1239627</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>103.40624200000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>47.934899960000003</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>39.349763029999998</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>48.942836720000003</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>62.636114910000003</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>47.232009759999997</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>49.820852199999997</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44.490590109999999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>46.995466319999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>65.743112280000005</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>45.539849619999998</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>48.013939739999998</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>46.06235393</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>45.79738562</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>35.129438720000003</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>40.688508910000003</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>48.931623930000001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>58.52792256</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>59.348418760000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>49.432703490000002</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>35.166666669999998</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>71.318387680000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>52.369230770000001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>49.855475759999997</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>48.11538462</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>42.010777730000001</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>49.418481239999998</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>46.608644859999998</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>34.043201750000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>61.382561039999999</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>52.523329150000002</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>61.382263000000002</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>49.743336399999997</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>52.396946560000004</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>41.4</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>66.159781940000002</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>40.755072460000001</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>55.187680120000003</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>58.308108750000002</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>58.299482679999997</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>49.068799319999997</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>47.084329429999997</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>36.510971789999999</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>46.553158779999997</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>76.685607289999993</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>59.516256589999998</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>54.659475550000003</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>77.638969399999993</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>59.997094560000001</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>45.968518520000003</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>44.976699029999999</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>37.637795279999999</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>25.68218542</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>44.402008029999998</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>54.60488677</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>33.105615200000003</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>36.064343200000003</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>47.396119470000002</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>46.360570289999998</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>66.924711209999998</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>51.806688170000001</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>45.337337099999999</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>45.984615380000001</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>43.1</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>40.742201440000002</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>53.510773749999998</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>59.43347619</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>55.778896070000002</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>53.07448187</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>42.57692308</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>63.814521149999997</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>58.32213952</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>39.627256320000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>61.833333330000002</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>61.868299299999997</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>67.112947109999993</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>46.816393439999999</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>70.078473029999998</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>53.95854756</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>55.717175570000002</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>64.013873369999999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>68.386775979999996</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>48.531716420000002</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>46.722431479999997</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>60.999211539999997</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>40.3009901</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>46.438746440000003</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>37.719934100000003</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>42.946803269999997</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>60.568785890000001</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>38.337949389999999</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>47.610643799999998</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>51.794835820000003</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>50.623022849999998</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>39.613869559999998</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>43.794214009999997</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>61.933608489999997</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>46.186199340000002</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>46.8859584</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>51.38931298</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>68.333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>63.510934030000001</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>59.069343070000002</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>48.134284770000001</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>67.022374790000001</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>55.080456300000002</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>39.955319150000001</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>46.464366519999999</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>41.110489510000001</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>59.702555699999998</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>62.929512379999998</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>53.109613289999999</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>56.387253229999999</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>72.180616099999995</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>45.896618050000001</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>47.689419690000001</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>55.717830229999997</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>47.62236377</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>55.29276316</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>70.027922529999998</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>49.180016860000002</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>42.654545450000001</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>40.01841581</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>40.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>75.069687520000002</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>57.021775589999997</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>50.49811485</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>45.201612900000001</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>52.5204564</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>43.686672549999997</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>39.024561400000003</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>66.704064130000006</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>48.64165612</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>39.435746610000002</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>36.630661089999997</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>33.71755229</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>56.932550620000001</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>39.653751669999998</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>49.967989289999998</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>53.07692308</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>72.138888890000004</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>52.098837209999999</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>40.37918552</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>51.620590739999997</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>45.042119790000001</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>47.626984129999997</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>49.884684069999999</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>71.850974930000007</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>56.110944240000002</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>51.159820959999998</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>50.17053903</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>60.966558790000001</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>77.819476679999994</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>36.94865746</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>61.995019919999997</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>46.533014350000002</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>64.668559299999998</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>51.749439459999998</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>44.994640629999999</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>43.933100090000003</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>65.863418460000005</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>69.544437380000005</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>70.721830990000001</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>46.127272730000001</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>53.376880100000001</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>46.204031260000001</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>36.411808120000003</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>56.704082900000003</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>78.53473554</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>42.046234679999998</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>49.183193469999999</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>66.419983479999999</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>72.020542919999997</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>47.0226331</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>44.888449360000003</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>41.153225810000002</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>52.525968310000003</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>39.467647059999997</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>44.864367819999998</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>49.80269904</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>92.015404360000005</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>74.271775140000003</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>85.737927119999995</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>56.221340060000003</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>49.594854990000002</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>60.891679369999999</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>36.471912570000001</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>39.459550559999997</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>43.185410330000003</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>49.506432750000002</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>50.69441724</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>33.881276900000003</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>78.03068906</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>45.145413560000001</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>48.07815901</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>47.654053570000002</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>61.099650259999997</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>50.288663659999997</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>40.937628119999999</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>43.899808800000002</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>35.678787880000002</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>46.087962959999999</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>106.28779919999999</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>63.375474740000001</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>59.779367329999999</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>50.918866479999998</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>62.28702328</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>53.87846656</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>52.306711880000002</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>55.969581490000003</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>39.592840610000003</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>49.433886510000001</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>39.047043879999997</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>30.842590869999999</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>67.474044809999995</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>77.783396440000004</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>28.804041349999999</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>31.26295193</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>93.549846340000002</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>54.273417719999998</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>69.018743150000006</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>58.034911450000003</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>34.789218040000002</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>39.6</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>65.708045200000001</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>82.549668870000005</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>57.403447640000003</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>85.283801949999997</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>54.763382470000003</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>72.711773300000004</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>51.910810699999999</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>65.389704940000001</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>49.14563107</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>40.387878790000002</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>65.525269730000005</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>50.560792200000002</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>58.057890049999997</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>65.272006219999994</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>61.400862070000002</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>47.527222979999998</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>67.336989180000003</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>47.926887890000003</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>38.030141839999999</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>49.78437933</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>43.595652170000001</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>62.066786999999998</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>52.098137819999998</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>48.84817434</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>45.25553755</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>40.403381639999999</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>62.361277450000003</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>61.569870590000001</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>49.227800139999999</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>41.688636359999997</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>73.527226670000005</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>65.147651010000004</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>44.580297090000002</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>53.75</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>58.196245560000001</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>49.333549220000002</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>47.057665900000003</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>59.765625</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>39.619047620000003</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>41.998605429999998</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>47.545963409999999</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>55.574193549999997</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>82.801627629999999</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>75.287073879999994</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>62.550001160000001</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>34.559836539999999</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>76.945760390000004</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>53.402230179999997</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>65.403041830000006</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>38.929502530000001</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>57.378780040000002</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>91.797490159999995</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>57.250501419999999</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>53.549179469999999</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>58.95</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>104.4276998</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>62.571662570000001</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>48.678646929999999</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>61.283895129999998</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>58.829415220000001</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>76.108786609999996</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>62.150509890000002</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>51.448394499999999</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>37.806666669999998</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>54.43176734</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>49.314449099999997</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>41.094252869999998</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>53.203558909999998</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>74.521431710000002</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>45.070074650000002</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>58.204701270000001</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>49.007278669999998</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>62.534472489999999</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>46.465604030000002</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>67.987348179999998</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>56.727520200000001</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>74.809318009999998</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>75.307689089999997</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>75.753009039999995</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>43.797619050000002</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>66.333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>47.117938369999997</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>53.509939760000002</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>75.139536379999996</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>59.4</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>81.264782879999998</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>61.100509369999997</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>68.621004569999997</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>83.896717510000002</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>63.11874272</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>63.730937699999998</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>69.455060990000007</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>64.979667309999996</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>75.084202520000005</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>52.086206900000001</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>49.991489010000002</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>91.417932489999998</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>71.009764189999999</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>62.920333839999998</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>138.8260095</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>65.357981219999999</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>61.499497990000002</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>69.706606649999998</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>54.573963710000001</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>58.650100399999999</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>54.571370309999999</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>78.005822420000001</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>76.333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>69.407608699999997</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>52.519220949999998</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>65.445552680000006</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>80.757606910000007</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>53.616004109999999</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>82.860380120000002</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>79.25164307</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>88.540125990000007</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>81.168032789999998</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>83.306247389999996</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>85.483679530000003</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>65.295143629999998</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>55.852686900000002</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>64.049937580000005</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>63.714041100000003</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>57.22666667</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>92.873433009999999</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>76.992754980000001</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>73.946015270000004</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>63.866159009999997</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>53.245307699999998</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>59.969858799999997</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>42.518439999999998</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>45.22630332</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>79.941853010000003</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>50.794131010000001</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>55.354202039999997</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>49.51382057</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>50.3949754</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>62.967948720000003</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>48.898486759999997</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>49.597002070000002</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>54.230202820000002</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>52.554469269999998</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>60.941600149999999</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>53.571428570000002</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>66.609696630000002</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>62.696637430000003</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>48.556561090000002</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>56.089762489999998</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>47.056288270000003</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>43.364161850000002</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>64.192815769999996</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>53.495281149999997</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>53.931406379999999</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>34.945068929999998</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>52.75</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>42.62290076</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>53.806190749999999</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>83.374371999999994</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>63.649094640000001</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>60.687679080000002</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>47.143923020000003</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>49.518456960000002</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>44.364649239999999</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>33.814169990000003</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>76.168137909999999</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>40.60243234</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>37.121209030000003</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>63.430107530000001</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>54.678191490000003</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>40.80795105</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>48.220195439999998</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>53.600038069999997</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>38.358719649999998</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>50.611931820000002</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>53.480346820000001</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>60.130914830000002</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>50.546296300000002</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>89.300650239999996</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>65.301470589999994</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>44.611398960000002</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>43.555462900000002</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>56.234763829999999</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>76.586334260000001</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>62.076157989999999</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>57.88392228</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>57.107765960000002</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>36.9375</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>65.872716420000003</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>56.46367</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>63.826127</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>62.686038740000001</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>61.833333330000002</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>66.907801419999998</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>61.708136549999999</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>58.593608889999999</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>63.249011860000003</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>48.743705040000002</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>48.268398269999999</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>62.669782679999997</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>58.443799650000003</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>70.595484560000003</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>53.53</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>84.598135049999996</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>63.423689379999999</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>41.927712069999998</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>63.980973030000001</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>61.64831461</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>62.394105529999997</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>66.333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>57.850492350000003</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>55.250362680000002</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>66.462128179999993</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>56.75</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>56.096288029999997</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>60.319431850000001</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>52.258258259999998</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>75.607190410000001</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>55.702036399999997</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>69.557171600000004</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>45.310476139999999</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>50.1615483</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>59.998742780000001</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>32.853099870000001</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>36.710463910000001</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>69.711017589999997</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>69.742822970000006</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>61.30808081</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>66.109234229999998</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>65.122516559999994</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>54.38554852</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>58.385524369999999</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>73.913744460000004</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>49.59192599</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>75.113478400000005</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>63.133365900000001</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>65.812177500000004</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>69.783549780000001</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>62.500546419999999</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>61.439258070000001</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>84.498701440000005</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>54.738423580000003</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>79.547619049999994</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>58.801974909999998</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>48.6</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>54.235369030000001</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>52.518050539999997</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>43.757484599999998</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>51.757575760000002</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>69.341598629999993</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>55.454545449999998</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>53.663854360000002</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>62.006804080000002</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>63.703947370000002</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>83.897685749999994</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>50.457333079999998</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>59.508169109999997</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>49.513157890000002</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>74.167621589999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFB8-014A-BBCF-1D42DE6BC3F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1980972096"/>
-        <c:axId val="1980973808"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1980972096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Vocabulary Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1980973808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1980973808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>MTLD Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1980972096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12224,563 +7907,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13337,47 +8464,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4894E658-C635-FFBE-1F36-BBEFD69D48AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13698,7 +8784,7 @@
   <dimension ref="A1:M639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54632,7 +49718,7 @@
   <dimension ref="A1:I639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54659,13 +49745,8 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="I1" s="1">
-        <f>CORREL(F2:F639,G2:G639)</f>
-        <v>0.3220326294593</v>
-      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -69343,6 +64424,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30854ACC-3A51-D54E-8B14-3F98CABC8A76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ICNALE_correlation_sample.xlsx
+++ b/ICNALE_correlation_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkyle2/Desktop/Programming/GitHub/kristopherkyle/LD_Workshop_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44420A49-6E70-C34B-9D67-4A1512A3F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F8E93-49FB-534B-9CA8-A1F77EBB19D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="940" windowWidth="33880" windowHeight="21040" activeTab="1" xr2:uid="{42C730B2-3142-904F-96FF-5C7132A4CC8E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{42C730B2-3142-904F-96FF-5C7132A4CC8E}"/>
   </bookViews>
   <sheets>
     <sheet name="icnale_rubric_taaled_taales_202" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9598" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9600" uniqueCount="987">
   <si>
     <t>filename</t>
   </si>
@@ -8783,11 +8783,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5F5282-B6B5-6C4A-8AF6-F9CC0569BCAA}">
   <dimension ref="A1:M639"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -34997,8 +35000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9772C0-F5AB-EB4C-9398-B307E4A6AF56}">
   <dimension ref="A1:I639"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="300" zoomScaleNormal="300" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35029,7 +35032,7 @@
         <v>986</v>
       </c>
       <c r="I1" s="1">
-        <f>CORREL(F2:F639,G2:G639)</f>
+        <f>CORREL(F:F,G:G)</f>
         <v>0.3334289214391698</v>
       </c>
     </row>
@@ -49717,8 +49720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D9A3FC-56F2-D046-877A-F0A0E3E7936F}">
   <dimension ref="A1:I639"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49745,7 +49748,10 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1">
+        <f>CORREL(F:F,G:G)</f>
+        <v>0.3220326294593</v>
+      </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -64429,12 +64435,5127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30854ACC-3A51-D54E-8B14-3F98CABC8A76}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>11</v>
+      </c>
+      <c r="B119">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>10</v>
+      </c>
+      <c r="B134">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>10</v>
+      </c>
+      <c r="B135">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>8</v>
+      </c>
+      <c r="B146">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>9</v>
+      </c>
+      <c r="B154">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>8</v>
+      </c>
+      <c r="B170">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>8</v>
+      </c>
+      <c r="B172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>11</v>
+      </c>
+      <c r="B176">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>10</v>
+      </c>
+      <c r="B177">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>8</v>
+      </c>
+      <c r="B180">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>7</v>
+      </c>
+      <c r="B181">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>9</v>
+      </c>
+      <c r="B186">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>9</v>
+      </c>
+      <c r="B188">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>9</v>
+      </c>
+      <c r="B192">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>6</v>
+      </c>
+      <c r="B194">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="B196">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>9</v>
+      </c>
+      <c r="B200">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>7</v>
+      </c>
+      <c r="B203">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>9</v>
+      </c>
+      <c r="B204">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>6</v>
+      </c>
+      <c r="B205">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>9</v>
+      </c>
+      <c r="B206">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>6</v>
+      </c>
+      <c r="B207">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>9</v>
+      </c>
+      <c r="B208">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>6</v>
+      </c>
+      <c r="B209">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>7</v>
+      </c>
+      <c r="B211">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>7</v>
+      </c>
+      <c r="B214">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>9</v>
+      </c>
+      <c r="B215">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>9</v>
+      </c>
+      <c r="B216">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>7</v>
+      </c>
+      <c r="B217">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>9</v>
+      </c>
+      <c r="B218">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>7</v>
+      </c>
+      <c r="B219">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>7</v>
+      </c>
+      <c r="B220">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>9</v>
+      </c>
+      <c r="B221">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>9</v>
+      </c>
+      <c r="B222">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>7</v>
+      </c>
+      <c r="B223">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>7</v>
+      </c>
+      <c r="B225">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>8</v>
+      </c>
+      <c r="B227">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>9</v>
+      </c>
+      <c r="B228">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>6</v>
+      </c>
+      <c r="B229">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>7</v>
+      </c>
+      <c r="B230">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>7</v>
+      </c>
+      <c r="B231">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>6</v>
+      </c>
+      <c r="B233">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>7</v>
+      </c>
+      <c r="B234">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>6</v>
+      </c>
+      <c r="B236">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>6</v>
+      </c>
+      <c r="B238">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>8</v>
+      </c>
+      <c r="B239">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>6</v>
+      </c>
+      <c r="B241">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>10</v>
+      </c>
+      <c r="B244">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>7</v>
+      </c>
+      <c r="B245">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>6</v>
+      </c>
+      <c r="B246">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>12</v>
+      </c>
+      <c r="B248">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>7</v>
+      </c>
+      <c r="B249">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>7</v>
+      </c>
+      <c r="B251">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>9</v>
+      </c>
+      <c r="B252">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>7</v>
+      </c>
+      <c r="B253">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>7</v>
+      </c>
+      <c r="B254">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>7</v>
+      </c>
+      <c r="B255">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>7</v>
+      </c>
+      <c r="B257">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>7</v>
+      </c>
+      <c r="B258">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>7</v>
+      </c>
+      <c r="B259">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>6</v>
+      </c>
+      <c r="B260">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>7</v>
+      </c>
+      <c r="B261">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>6</v>
+      </c>
+      <c r="B262">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>7</v>
+      </c>
+      <c r="B264">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>6</v>
+      </c>
+      <c r="B266">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>6</v>
+      </c>
+      <c r="B267">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>7</v>
+      </c>
+      <c r="B268">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>6</v>
+      </c>
+      <c r="B269">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>7</v>
+      </c>
+      <c r="B270">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>7</v>
+      </c>
+      <c r="B271">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>7</v>
+      </c>
+      <c r="B272">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>7</v>
+      </c>
+      <c r="B273">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>8</v>
+      </c>
+      <c r="B274">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>8</v>
+      </c>
+      <c r="B275">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>7</v>
+      </c>
+      <c r="B276">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>7</v>
+      </c>
+      <c r="B278">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>10</v>
+      </c>
+      <c r="B280">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>7</v>
+      </c>
+      <c r="B282">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>6</v>
+      </c>
+      <c r="B283">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>11</v>
+      </c>
+      <c r="B284">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>9</v>
+      </c>
+      <c r="B285">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>7</v>
+      </c>
+      <c r="B286">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>8</v>
+      </c>
+      <c r="B287">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>11</v>
+      </c>
+      <c r="B288">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>10</v>
+      </c>
+      <c r="B289">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>9</v>
+      </c>
+      <c r="B290">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>10</v>
+      </c>
+      <c r="B291">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>8</v>
+      </c>
+      <c r="B292">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>7</v>
+      </c>
+      <c r="B293">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>12</v>
+      </c>
+      <c r="B296">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>10</v>
+      </c>
+      <c r="B297">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>9</v>
+      </c>
+      <c r="B298">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>8</v>
+      </c>
+      <c r="B299">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>9</v>
+      </c>
+      <c r="B300">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>7</v>
+      </c>
+      <c r="B301">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>10</v>
+      </c>
+      <c r="B302">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>11</v>
+      </c>
+      <c r="B303">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>9</v>
+      </c>
+      <c r="B304">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>6</v>
+      </c>
+      <c r="B305">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>6</v>
+      </c>
+      <c r="B306">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>7</v>
+      </c>
+      <c r="B307">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>8</v>
+      </c>
+      <c r="B308">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>9</v>
+      </c>
+      <c r="B310">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>10</v>
+      </c>
+      <c r="B312">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>11</v>
+      </c>
+      <c r="B313">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>9</v>
+      </c>
+      <c r="B314">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>8</v>
+      </c>
+      <c r="B315">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>8</v>
+      </c>
+      <c r="B316">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>7</v>
+      </c>
+      <c r="B317">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>9</v>
+      </c>
+      <c r="B318">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>11</v>
+      </c>
+      <c r="B319">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>8</v>
+      </c>
+      <c r="B320">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>8</v>
+      </c>
+      <c r="B321">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>11</v>
+      </c>
+      <c r="B322">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>12</v>
+      </c>
+      <c r="B323">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>11</v>
+      </c>
+      <c r="B324">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>9</v>
+      </c>
+      <c r="B325">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>6</v>
+      </c>
+      <c r="B326">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>7</v>
+      </c>
+      <c r="B327">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>9</v>
+      </c>
+      <c r="B329">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>9</v>
+      </c>
+      <c r="B330">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>5</v>
+      </c>
+      <c r="B331">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>12</v>
+      </c>
+      <c r="B332">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>9</v>
+      </c>
+      <c r="B333">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>12</v>
+      </c>
+      <c r="B334">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>8</v>
+      </c>
+      <c r="B335">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>9</v>
+      </c>
+      <c r="B336">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>6</v>
+      </c>
+      <c r="B338">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>6</v>
+      </c>
+      <c r="B339">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>9</v>
+      </c>
+      <c r="B340">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>6</v>
+      </c>
+      <c r="B341">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>9</v>
+      </c>
+      <c r="B342">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>8</v>
+      </c>
+      <c r="B343">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>8</v>
+      </c>
+      <c r="B344">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>7</v>
+      </c>
+      <c r="B345">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>9</v>
+      </c>
+      <c r="B346">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>8</v>
+      </c>
+      <c r="B347">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>6</v>
+      </c>
+      <c r="B348">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>6</v>
+      </c>
+      <c r="B349">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>7</v>
+      </c>
+      <c r="B350">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>7</v>
+      </c>
+      <c r="B351">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>7</v>
+      </c>
+      <c r="B352">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>7</v>
+      </c>
+      <c r="B353">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>11</v>
+      </c>
+      <c r="B354">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>11</v>
+      </c>
+      <c r="B355">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>8</v>
+      </c>
+      <c r="B356">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>9</v>
+      </c>
+      <c r="B357">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>8</v>
+      </c>
+      <c r="B358">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>7</v>
+      </c>
+      <c r="B359">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>7</v>
+      </c>
+      <c r="B361">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>8</v>
+      </c>
+      <c r="B362">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>9</v>
+      </c>
+      <c r="B363">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>4</v>
+      </c>
+      <c r="B364">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>4</v>
+      </c>
+      <c r="B365">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>6</v>
+      </c>
+      <c r="B366">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>7</v>
+      </c>
+      <c r="B367">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>7</v>
+      </c>
+      <c r="B368">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>5</v>
+      </c>
+      <c r="B369">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>6</v>
+      </c>
+      <c r="B370">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>7</v>
+      </c>
+      <c r="B371">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>9</v>
+      </c>
+      <c r="B372">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>9</v>
+      </c>
+      <c r="B373">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>8</v>
+      </c>
+      <c r="B374">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>7</v>
+      </c>
+      <c r="B375">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>7</v>
+      </c>
+      <c r="B376">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>6</v>
+      </c>
+      <c r="B377">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>7</v>
+      </c>
+      <c r="B378">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>6</v>
+      </c>
+      <c r="B379">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>9</v>
+      </c>
+      <c r="B380">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>9</v>
+      </c>
+      <c r="B381">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>7</v>
+      </c>
+      <c r="B382">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>7</v>
+      </c>
+      <c r="B383">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>8</v>
+      </c>
+      <c r="B384">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>7</v>
+      </c>
+      <c r="B385">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>7</v>
+      </c>
+      <c r="B386">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>8</v>
+      </c>
+      <c r="B387">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>8</v>
+      </c>
+      <c r="B388">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>7</v>
+      </c>
+      <c r="B389">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>6</v>
+      </c>
+      <c r="B390">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>7</v>
+      </c>
+      <c r="B391">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>7</v>
+      </c>
+      <c r="B392">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>7</v>
+      </c>
+      <c r="B393">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>7</v>
+      </c>
+      <c r="B394">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>7</v>
+      </c>
+      <c r="B395">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>8</v>
+      </c>
+      <c r="B396">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>7</v>
+      </c>
+      <c r="B397">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>7</v>
+      </c>
+      <c r="B398">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>7</v>
+      </c>
+      <c r="B399">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>9</v>
+      </c>
+      <c r="B400">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>7</v>
+      </c>
+      <c r="B401">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>7</v>
+      </c>
+      <c r="B402">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>7</v>
+      </c>
+      <c r="B403">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>10</v>
+      </c>
+      <c r="B404">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>8</v>
+      </c>
+      <c r="B405">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>5</v>
+      </c>
+      <c r="B406">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>7</v>
+      </c>
+      <c r="B407">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>7</v>
+      </c>
+      <c r="B408">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>7</v>
+      </c>
+      <c r="B409">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>6</v>
+      </c>
+      <c r="B410">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>6</v>
+      </c>
+      <c r="B411">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>7</v>
+      </c>
+      <c r="B412">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>8</v>
+      </c>
+      <c r="B413">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>6</v>
+      </c>
+      <c r="B414">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>7</v>
+      </c>
+      <c r="B415">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>11</v>
+      </c>
+      <c r="B416">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>7</v>
+      </c>
+      <c r="B417">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>12</v>
+      </c>
+      <c r="B418">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>12</v>
+      </c>
+      <c r="B419">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>9</v>
+      </c>
+      <c r="B420">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>7</v>
+      </c>
+      <c r="B421">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>10</v>
+      </c>
+      <c r="B422">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>11</v>
+      </c>
+      <c r="B423">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>8</v>
+      </c>
+      <c r="B424">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>9</v>
+      </c>
+      <c r="B425">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>8</v>
+      </c>
+      <c r="B426">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>10</v>
+      </c>
+      <c r="B427">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>12</v>
+      </c>
+      <c r="B428">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>8</v>
+      </c>
+      <c r="B429">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>11</v>
+      </c>
+      <c r="B430">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>12</v>
+      </c>
+      <c r="B431">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>9</v>
+      </c>
+      <c r="B432">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>7</v>
+      </c>
+      <c r="B433">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>10</v>
+      </c>
+      <c r="B434">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>7</v>
+      </c>
+      <c r="B435">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>10</v>
+      </c>
+      <c r="B436">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>9</v>
+      </c>
+      <c r="B437">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>8</v>
+      </c>
+      <c r="B438">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>6</v>
+      </c>
+      <c r="B439">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>7</v>
+      </c>
+      <c r="B440">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>8</v>
+      </c>
+      <c r="B441">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>7</v>
+      </c>
+      <c r="B442">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>6</v>
+      </c>
+      <c r="B443">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>8</v>
+      </c>
+      <c r="B444">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>8</v>
+      </c>
+      <c r="B445">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>10</v>
+      </c>
+      <c r="B446">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>7</v>
+      </c>
+      <c r="B447">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>7</v>
+      </c>
+      <c r="B448">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>8</v>
+      </c>
+      <c r="B449">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>10</v>
+      </c>
+      <c r="B450">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>8</v>
+      </c>
+      <c r="B451">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>10</v>
+      </c>
+      <c r="B452">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>10</v>
+      </c>
+      <c r="B453">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>11</v>
+      </c>
+      <c r="B454">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>9</v>
+      </c>
+      <c r="B455">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>12</v>
+      </c>
+      <c r="B456">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>7</v>
+      </c>
+      <c r="B457">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>10</v>
+      </c>
+      <c r="B458">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>10</v>
+      </c>
+      <c r="B459">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>12</v>
+      </c>
+      <c r="B460">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>12</v>
+      </c>
+      <c r="B461">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>12</v>
+      </c>
+      <c r="B462">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>12</v>
+      </c>
+      <c r="B463">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>10</v>
+      </c>
+      <c r="B464">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>11</v>
+      </c>
+      <c r="B465">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>10</v>
+      </c>
+      <c r="B466">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>12</v>
+      </c>
+      <c r="B467">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>11</v>
+      </c>
+      <c r="B468">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>12</v>
+      </c>
+      <c r="B469">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>11</v>
+      </c>
+      <c r="B470">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>11</v>
+      </c>
+      <c r="B471">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>10</v>
+      </c>
+      <c r="B472">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>11</v>
+      </c>
+      <c r="B473">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>11</v>
+      </c>
+      <c r="B474">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>11</v>
+      </c>
+      <c r="B475">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>11</v>
+      </c>
+      <c r="B476">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>11</v>
+      </c>
+      <c r="B477">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>11</v>
+      </c>
+      <c r="B478">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>10</v>
+      </c>
+      <c r="B479">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>12</v>
+      </c>
+      <c r="B480">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>10</v>
+      </c>
+      <c r="B481">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>11</v>
+      </c>
+      <c r="B482">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>12</v>
+      </c>
+      <c r="B483">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>12</v>
+      </c>
+      <c r="B484">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>11</v>
+      </c>
+      <c r="B485">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>11</v>
+      </c>
+      <c r="B486">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>11</v>
+      </c>
+      <c r="B487">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>10</v>
+      </c>
+      <c r="B488">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>10</v>
+      </c>
+      <c r="B489">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>12</v>
+      </c>
+      <c r="B490">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>11</v>
+      </c>
+      <c r="B491">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>11</v>
+      </c>
+      <c r="B492">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>12</v>
+      </c>
+      <c r="B493">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>12</v>
+      </c>
+      <c r="B494">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>11</v>
+      </c>
+      <c r="B495">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>12</v>
+      </c>
+      <c r="B496">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>11</v>
+      </c>
+      <c r="B497">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>12</v>
+      </c>
+      <c r="B498">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>10</v>
+      </c>
+      <c r="B499">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>4</v>
+      </c>
+      <c r="B500">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>6</v>
+      </c>
+      <c r="B501">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>2</v>
+      </c>
+      <c r="B502">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>1</v>
+      </c>
+      <c r="B503">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>7</v>
+      </c>
+      <c r="B504">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>7</v>
+      </c>
+      <c r="B505">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>4</v>
+      </c>
+      <c r="B506">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>4</v>
+      </c>
+      <c r="B507">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>6</v>
+      </c>
+      <c r="B508">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>5</v>
+      </c>
+      <c r="B509">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>9</v>
+      </c>
+      <c r="B510">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>5</v>
+      </c>
+      <c r="B511">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>6</v>
+      </c>
+      <c r="B512">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>6</v>
+      </c>
+      <c r="B513">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>7</v>
+      </c>
+      <c r="B514">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>5</v>
+      </c>
+      <c r="B515">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>7</v>
+      </c>
+      <c r="B516">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>2</v>
+      </c>
+      <c r="B517">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>8</v>
+      </c>
+      <c r="B518">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>10</v>
+      </c>
+      <c r="B519">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>11</v>
+      </c>
+      <c r="B520">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>7</v>
+      </c>
+      <c r="B521">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>5</v>
+      </c>
+      <c r="B522">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>7</v>
+      </c>
+      <c r="B523">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>7</v>
+      </c>
+      <c r="B524">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>7</v>
+      </c>
+      <c r="B525">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>5</v>
+      </c>
+      <c r="B526">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>2</v>
+      </c>
+      <c r="B527">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>7</v>
+      </c>
+      <c r="B528">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>5</v>
+      </c>
+      <c r="B529">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>7</v>
+      </c>
+      <c r="B530">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>7</v>
+      </c>
+      <c r="B531">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>7</v>
+      </c>
+      <c r="B532">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>7</v>
+      </c>
+      <c r="B533">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>9</v>
+      </c>
+      <c r="B534">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>7</v>
+      </c>
+      <c r="B535">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>8</v>
+      </c>
+      <c r="B536">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>7</v>
+      </c>
+      <c r="B537">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>6</v>
+      </c>
+      <c r="B538">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>6</v>
+      </c>
+      <c r="B539">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>7</v>
+      </c>
+      <c r="B540">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>7</v>
+      </c>
+      <c r="B541">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>4</v>
+      </c>
+      <c r="B542">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>1</v>
+      </c>
+      <c r="B543">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>10</v>
+      </c>
+      <c r="B544">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>7</v>
+      </c>
+      <c r="B545">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>6</v>
+      </c>
+      <c r="B546">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>4</v>
+      </c>
+      <c r="B547">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>3</v>
+      </c>
+      <c r="B548">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>3</v>
+      </c>
+      <c r="B549">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>8</v>
+      </c>
+      <c r="B550">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>7</v>
+      </c>
+      <c r="B551">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>7</v>
+      </c>
+      <c r="B552">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>7</v>
+      </c>
+      <c r="B553">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>7</v>
+      </c>
+      <c r="B554">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>7</v>
+      </c>
+      <c r="B555">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>7</v>
+      </c>
+      <c r="B556">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>8</v>
+      </c>
+      <c r="B557">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>8</v>
+      </c>
+      <c r="B558">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>7</v>
+      </c>
+      <c r="B559">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>9</v>
+      </c>
+      <c r="B560">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>10</v>
+      </c>
+      <c r="B561">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>9</v>
+      </c>
+      <c r="B562">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>8</v>
+      </c>
+      <c r="B563">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>6</v>
+      </c>
+      <c r="B564">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>6</v>
+      </c>
+      <c r="B565">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>9</v>
+      </c>
+      <c r="B566">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>7</v>
+      </c>
+      <c r="B567">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>9</v>
+      </c>
+      <c r="B568">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>10</v>
+      </c>
+      <c r="B569">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>8</v>
+      </c>
+      <c r="B570">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>8</v>
+      </c>
+      <c r="B571">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>10</v>
+      </c>
+      <c r="B572">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>9</v>
+      </c>
+      <c r="B573">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>11</v>
+      </c>
+      <c r="B574">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>6</v>
+      </c>
+      <c r="B575">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>7</v>
+      </c>
+      <c r="B576">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>6</v>
+      </c>
+      <c r="B577">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>9</v>
+      </c>
+      <c r="B578">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>8</v>
+      </c>
+      <c r="B579">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>8</v>
+      </c>
+      <c r="B580">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>8</v>
+      </c>
+      <c r="B581">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>9</v>
+      </c>
+      <c r="B582">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>8</v>
+      </c>
+      <c r="B583">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>4</v>
+      </c>
+      <c r="B584">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>3</v>
+      </c>
+      <c r="B585">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>10</v>
+      </c>
+      <c r="B586">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>7</v>
+      </c>
+      <c r="B587">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>10</v>
+      </c>
+      <c r="B588">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>8</v>
+      </c>
+      <c r="B589">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>6</v>
+      </c>
+      <c r="B590">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>5</v>
+      </c>
+      <c r="B591">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>8</v>
+      </c>
+      <c r="B592">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>9</v>
+      </c>
+      <c r="B593">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>9</v>
+      </c>
+      <c r="B594">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>8</v>
+      </c>
+      <c r="B595">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>10</v>
+      </c>
+      <c r="B596">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>7</v>
+      </c>
+      <c r="B597">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>9</v>
+      </c>
+      <c r="B598">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>6</v>
+      </c>
+      <c r="B599">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>9</v>
+      </c>
+      <c r="B600">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>7</v>
+      </c>
+      <c r="B601">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>6</v>
+      </c>
+      <c r="B602">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>3</v>
+      </c>
+      <c r="B603">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>11</v>
+      </c>
+      <c r="B604">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>10</v>
+      </c>
+      <c r="B605">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>9</v>
+      </c>
+      <c r="B606">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>10</v>
+      </c>
+      <c r="B607">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>10</v>
+      </c>
+      <c r="B608">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>8</v>
+      </c>
+      <c r="B609">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>7</v>
+      </c>
+      <c r="B610">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>6</v>
+      </c>
+      <c r="B611">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>9</v>
+      </c>
+      <c r="B612">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>7</v>
+      </c>
+      <c r="B613">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>10</v>
+      </c>
+      <c r="B614">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>8</v>
+      </c>
+      <c r="B615">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>10</v>
+      </c>
+      <c r="B616">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>6</v>
+      </c>
+      <c r="B617">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>9</v>
+      </c>
+      <c r="B618">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>7</v>
+      </c>
+      <c r="B619">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>7</v>
+      </c>
+      <c r="B620">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>6</v>
+      </c>
+      <c r="B621">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>10</v>
+      </c>
+      <c r="B622">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>10</v>
+      </c>
+      <c r="B623">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>9</v>
+      </c>
+      <c r="B624">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>9</v>
+      </c>
+      <c r="B625">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>10</v>
+      </c>
+      <c r="B626">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>9</v>
+      </c>
+      <c r="B627">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>11</v>
+      </c>
+      <c r="B628">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>10</v>
+      </c>
+      <c r="B629">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>10</v>
+      </c>
+      <c r="B630">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>10</v>
+      </c>
+      <c r="B631">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>11</v>
+      </c>
+      <c r="B632">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>11</v>
+      </c>
+      <c r="B633">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>11</v>
+      </c>
+      <c r="B634">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>9</v>
+      </c>
+      <c r="B635">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>10</v>
+      </c>
+      <c r="B636">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>6</v>
+      </c>
+      <c r="B637">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>9</v>
+      </c>
+      <c r="B638">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>9</v>
+      </c>
+      <c r="B639">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>